--- a/exe/Xml/SpeedLimit.xlsx
+++ b/exe/Xml/SpeedLimit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\【簡易版】TrainCrewMoniter - コピー\exe\Xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\【簡易版】TrainCrewMoniter\exe\Xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B349A1-F417-4625-B00B-33580AC67D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243BD8AE-AEC3-4555-97D2-92C649E52683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="4185" windowWidth="24345" windowHeight="15000" xr2:uid="{5A886174-BE53-4209-B857-2A0A2EC276FC}"/>
+    <workbookView xWindow="8415" yWindow="4380" windowWidth="24345" windowHeight="15000" xr2:uid="{5A886174-BE53-4209-B857-2A0A2EC276FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="65">
   <si>
     <t>Direction</t>
     <phoneticPr fontId="1"/>
@@ -174,6 +174,139 @@
   </si>
   <si>
     <t>新野崎駅4番下り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西赤山駅下り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日野森駅3番下り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高見沢駅1番下り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高見沢駅2番下り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水越駅2番下り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水越駅1番下り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤江駅2番下り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤江駅1番下り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤江駅1番上り</t>
+    <rPh sb="5" eb="6">
+      <t>ノボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤江駅2番上り</t>
+    <rPh sb="5" eb="6">
+      <t>ノボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水越駅1番上り</t>
+    <rPh sb="5" eb="6">
+      <t>ノボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水越駅2番上り</t>
+    <rPh sb="5" eb="6">
+      <t>ノボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高見沢駅1番上り</t>
+    <rPh sb="6" eb="7">
+      <t>ノボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高見沢駅2番上り</t>
+    <rPh sb="6" eb="7">
+      <t>ノボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高見沢駅2番上り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高見沢駅1番上り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日野森駅1番上り</t>
+    <rPh sb="6" eb="7">
+      <t>ノボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西赤山駅上り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤山町1番上り</t>
+    <rPh sb="0" eb="2">
+      <t>アカヤマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ノボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤山町3番上り</t>
+    <rPh sb="0" eb="2">
+      <t>アカヤマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ノボ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -276,8 +409,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFDF2857-AE53-4DB9-A1B7-0BB8149C7CCD}" name="テーブル1" displayName="テーブル1" ref="A1:F46" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F46" xr:uid="{EFDF2857-AE53-4DB9-A1B7-0BB8149C7CCD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFDF2857-AE53-4DB9-A1B7-0BB8149C7CCD}" name="テーブル1" displayName="テーブル1" ref="A1:F94" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F94" xr:uid="{EFDF2857-AE53-4DB9-A1B7-0BB8149C7CCD}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B1A26E04-2640-47A3-AB68-BA57A2AD62F2}" uniqueName="Direction" name="Direction">
       <xmlColumnPr mapId="1" xpath="/Xml/Value/Direction" xmlDataType="string"/>
@@ -599,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -636,520 +769,520 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+      <c r="A2" t="s">
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>560</v>
+        <v>2000</v>
       </c>
       <c r="C2">
-        <v>539</v>
+        <v>1811</v>
       </c>
       <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" t="s">
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>1578</v>
       </c>
       <c r="C3">
-        <v>218</v>
+        <v>1378</v>
       </c>
       <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+      <c r="A4" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>1004</v>
+        <v>841</v>
       </c>
       <c r="C4">
-        <v>900</v>
+        <v>641</v>
       </c>
       <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
+      <c r="A5" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1004</v>
+        <v>600</v>
       </c>
       <c r="C5">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
+      <c r="A6" t="s">
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>1685</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1485</v>
       </c>
       <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>1685</v>
+      </c>
+      <c r="C7">
+        <v>1485</v>
+      </c>
+      <c r="D7">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>1063</v>
+      </c>
+      <c r="C8">
+        <v>863</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>1063</v>
+      </c>
+      <c r="C9">
+        <v>863</v>
+      </c>
+      <c r="D9">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>531</v>
+      </c>
+      <c r="C10">
+        <v>431</v>
+      </c>
+      <c r="D10">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>1537</v>
+      </c>
+      <c r="C11">
+        <v>1337</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>1537</v>
+      </c>
+      <c r="C12">
+        <v>1337</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>835</v>
+      </c>
+      <c r="C13">
+        <v>535</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>835</v>
+      </c>
+      <c r="C14">
+        <v>535</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>420</v>
+      </c>
+      <c r="C15">
+        <v>220</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>231</v>
+      </c>
+      <c r="C16">
+        <v>131</v>
+      </c>
+      <c r="D16">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>1139</v>
+      </c>
+      <c r="C17">
+        <v>1039</v>
+      </c>
+      <c r="D17">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>1139</v>
+      </c>
+      <c r="C18">
+        <v>1039</v>
+      </c>
+      <c r="D18">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>764</v>
+      </c>
+      <c r="C19">
+        <v>464</v>
+      </c>
+      <c r="D19">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>525</v>
+      </c>
+      <c r="C20">
+        <v>325</v>
+      </c>
+      <c r="D20">
         <v>80</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1400</v>
-      </c>
-      <c r="C7">
-        <v>1171</v>
-      </c>
-      <c r="D7">
-        <v>63</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1400</v>
-      </c>
-      <c r="C8">
-        <v>1171</v>
-      </c>
-      <c r="D8">
-        <v>63</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>460</v>
-      </c>
-      <c r="C9">
-        <v>243</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>946</v>
-      </c>
-      <c r="C10">
-        <v>746</v>
-      </c>
-      <c r="D10">
-        <v>105</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>946</v>
-      </c>
-      <c r="C11">
-        <v>746</v>
-      </c>
-      <c r="D11">
-        <v>105</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>349</v>
-      </c>
-      <c r="C12">
-        <v>225</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>349</v>
-      </c>
-      <c r="C13">
-        <v>225</v>
-      </c>
-      <c r="D13">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>105</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>1266</v>
-      </c>
-      <c r="C15">
-        <v>980</v>
-      </c>
-      <c r="D15">
-        <v>43</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>1266</v>
-      </c>
-      <c r="C16">
-        <v>980</v>
-      </c>
-      <c r="D16">
-        <v>43</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>1266</v>
-      </c>
-      <c r="C17">
-        <v>980</v>
-      </c>
-      <c r="D17">
-        <v>43</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>1266</v>
-      </c>
-      <c r="C18">
-        <v>980</v>
-      </c>
-      <c r="D18">
-        <v>43</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>632</v>
-      </c>
-      <c r="C19">
-        <v>440</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>632</v>
-      </c>
-      <c r="C20">
-        <v>440</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>25</v>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
+      <c r="A21" t="s">
+        <v>43</v>
       </c>
       <c r="B21">
-        <v>632</v>
+        <v>1756</v>
       </c>
       <c r="C21">
-        <v>440</v>
+        <v>1656</v>
       </c>
       <c r="D21">
-        <v>40</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
+      <c r="A22" t="s">
+        <v>43</v>
       </c>
       <c r="B22">
-        <v>632</v>
+        <v>1756</v>
       </c>
       <c r="C22">
-        <v>440</v>
+        <v>1656</v>
       </c>
       <c r="D22">
-        <v>40</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
+      <c r="A23" t="s">
+        <v>43</v>
       </c>
       <c r="B23">
-        <v>2000</v>
+        <v>995</v>
       </c>
       <c r="C23">
-        <v>1633</v>
+        <v>795</v>
       </c>
       <c r="D23">
-        <v>50</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>7</v>
+      <c r="A24" t="s">
+        <v>43</v>
       </c>
       <c r="B24">
-        <v>2000</v>
+        <v>995</v>
       </c>
       <c r="C24">
-        <v>1633</v>
+        <v>795</v>
       </c>
       <c r="D24">
-        <v>40</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>7</v>
+      <c r="A25" t="s">
+        <v>43</v>
       </c>
       <c r="B25">
-        <v>2000</v>
+        <v>603</v>
       </c>
       <c r="C25">
-        <v>1633</v>
+        <v>303</v>
       </c>
       <c r="D25">
         <v>40</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>9</v>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>7</v>
+      <c r="A26" t="s">
+        <v>43</v>
       </c>
       <c r="B26">
-        <v>1633</v>
+        <v>603</v>
       </c>
       <c r="C26">
-        <v>1276</v>
+        <v>303</v>
       </c>
       <c r="D26">
-        <v>95</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B27">
-        <v>1633</v>
+        <v>560</v>
       </c>
       <c r="C27">
-        <v>1276</v>
+        <v>539</v>
       </c>
       <c r="D27">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>9</v>
@@ -1157,39 +1290,39 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>1633</v>
+        <v>400</v>
       </c>
       <c r="C28">
-        <v>1276</v>
+        <v>218</v>
       </c>
       <c r="D28">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>1633</v>
+        <v>1004</v>
       </c>
       <c r="C29">
-        <v>1276</v>
+        <v>900</v>
       </c>
       <c r="D29">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>
@@ -1197,293 +1330,293 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
-        <v>700</v>
+        <v>1004</v>
       </c>
       <c r="C30">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="C31">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="D31">
+        <v>80</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>1029</v>
+        <v>1400</v>
       </c>
       <c r="C32">
-        <v>980</v>
+        <v>1171</v>
       </c>
       <c r="D32">
+        <v>63</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33">
-        <v>750</v>
+        <v>1400</v>
       </c>
       <c r="C33">
-        <v>579</v>
+        <v>1171</v>
       </c>
       <c r="D33">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C34">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="D34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>464</v>
+        <v>946</v>
       </c>
       <c r="C35">
-        <v>264</v>
+        <v>746</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <v>1489</v>
+        <v>946</v>
       </c>
       <c r="C36">
-        <v>1443</v>
+        <v>746</v>
       </c>
       <c r="D36">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37">
-        <v>1443</v>
+        <v>349</v>
       </c>
       <c r="C37">
-        <v>1361</v>
+        <v>225</v>
       </c>
       <c r="D37">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C38">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39">
-        <v>1344</v>
+        <v>200</v>
       </c>
       <c r="C39">
-        <v>1309</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40">
-        <v>1116</v>
+        <v>1266</v>
       </c>
       <c r="C40">
-        <v>916</v>
+        <v>980</v>
       </c>
       <c r="D40">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>470</v>
+        <v>1266</v>
       </c>
       <c r="C41">
-        <v>254</v>
+        <v>980</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>470</v>
+        <v>1266</v>
       </c>
       <c r="C42">
-        <v>254</v>
+        <v>980</v>
       </c>
       <c r="D42">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>826</v>
+        <v>1266</v>
       </c>
       <c r="C43">
-        <v>700</v>
+        <v>980</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>433</v>
+        <v>632</v>
       </c>
       <c r="C44">
-        <v>233</v>
+        <v>440</v>
       </c>
       <c r="D44">
         <v>40</v>
@@ -1492,18 +1625,18 @@
         <v>9</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>433</v>
+        <v>632</v>
       </c>
       <c r="C45">
-        <v>233</v>
+        <v>440</v>
       </c>
       <c r="D45">
         <v>40</v>
@@ -1512,18 +1645,18 @@
         <v>9</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>472</v>
+        <v>632</v>
       </c>
       <c r="C46">
-        <v>272</v>
+        <v>440</v>
       </c>
       <c r="D46">
         <v>40</v>
@@ -1532,8 +1665,986 @@
         <v>9</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>632</v>
+      </c>
+      <c r="C47">
+        <v>440</v>
+      </c>
+      <c r="D47">
+        <v>40</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>2000</v>
+      </c>
+      <c r="C48">
+        <v>1633</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>2000</v>
+      </c>
+      <c r="C49">
+        <v>1633</v>
+      </c>
+      <c r="D49">
+        <v>40</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>2000</v>
+      </c>
+      <c r="C50">
+        <v>1633</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>1633</v>
+      </c>
+      <c r="C51">
+        <v>1276</v>
+      </c>
+      <c r="D51">
+        <v>95</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>1633</v>
+      </c>
+      <c r="C52">
+        <v>1276</v>
+      </c>
+      <c r="D52">
+        <v>95</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>1633</v>
+      </c>
+      <c r="C53">
+        <v>1276</v>
+      </c>
+      <c r="D53">
+        <v>95</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>1633</v>
+      </c>
+      <c r="C54">
+        <v>1276</v>
+      </c>
+      <c r="D54">
+        <v>95</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>700</v>
+      </c>
+      <c r="C55">
+        <v>270</v>
+      </c>
+      <c r="D55">
+        <v>40</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>700</v>
+      </c>
+      <c r="C56">
+        <v>283</v>
+      </c>
+      <c r="D56">
+        <v>40</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>1029</v>
+      </c>
+      <c r="C57">
+        <v>980</v>
+      </c>
+      <c r="D57">
+        <v>40</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>750</v>
+      </c>
+      <c r="C58">
+        <v>579</v>
+      </c>
+      <c r="D58">
+        <v>105</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>464</v>
+      </c>
+      <c r="C59">
+        <v>264</v>
+      </c>
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>464</v>
+      </c>
+      <c r="C60">
+        <v>264</v>
+      </c>
+      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>1489</v>
+      </c>
+      <c r="C61">
+        <v>1443</v>
+      </c>
+      <c r="D61">
+        <v>40</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>1443</v>
+      </c>
+      <c r="C62">
+        <v>1361</v>
+      </c>
+      <c r="D62">
+        <v>105</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>330</v>
+      </c>
+      <c r="C63">
+        <v>235</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>1344</v>
+      </c>
+      <c r="C64">
+        <v>1309</v>
+      </c>
+      <c r="D64">
+        <v>50</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>1116</v>
+      </c>
+      <c r="C65">
+        <v>916</v>
+      </c>
+      <c r="D65">
+        <v>65</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>470</v>
+      </c>
+      <c r="C66">
+        <v>254</v>
+      </c>
+      <c r="D66">
+        <v>30</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>470</v>
+      </c>
+      <c r="C67">
+        <v>254</v>
+      </c>
+      <c r="D67">
+        <v>30</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>826</v>
+      </c>
+      <c r="C68">
+        <v>700</v>
+      </c>
+      <c r="D68">
+        <v>30</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>433</v>
+      </c>
+      <c r="C69">
+        <v>233</v>
+      </c>
+      <c r="D69">
+        <v>40</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>433</v>
+      </c>
+      <c r="C70">
+        <v>233</v>
+      </c>
+      <c r="D70">
+        <v>40</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>472</v>
+      </c>
+      <c r="C71">
+        <v>272</v>
+      </c>
+      <c r="D71">
+        <v>40</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>1842</v>
+      </c>
+      <c r="C72">
+        <v>1742</v>
+      </c>
+      <c r="D72">
+        <v>80</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>1842</v>
+      </c>
+      <c r="C73">
+        <v>1742</v>
+      </c>
+      <c r="D73">
+        <v>80</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>1073</v>
+      </c>
+      <c r="C74">
+        <v>973</v>
+      </c>
+      <c r="D74">
+        <v>95</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>1073</v>
+      </c>
+      <c r="C75">
+        <v>973</v>
+      </c>
+      <c r="D75">
+        <v>95</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>570</v>
+      </c>
+      <c r="C76">
+        <v>370</v>
+      </c>
+      <c r="D76">
+        <v>65</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77">
+        <v>398</v>
+      </c>
+      <c r="C77">
+        <v>198</v>
+      </c>
+      <c r="D77">
+        <v>80</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>1016</v>
+      </c>
+      <c r="C78">
+        <v>916</v>
+      </c>
+      <c r="D78">
+        <v>90</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>1016</v>
+      </c>
+      <c r="C79">
+        <v>916</v>
+      </c>
+      <c r="D79">
+        <v>90</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>540</v>
+      </c>
+      <c r="C80">
+        <v>240</v>
+      </c>
+      <c r="D80">
+        <v>50</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>308</v>
+      </c>
+      <c r="C81">
+        <v>108</v>
+      </c>
+      <c r="D81">
+        <v>70</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>1656</v>
+      </c>
+      <c r="C82">
+        <v>1556</v>
+      </c>
+      <c r="D82">
+        <v>60</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>1656</v>
+      </c>
+      <c r="C83">
+        <v>1556</v>
+      </c>
+      <c r="D83">
+        <v>60</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>897</v>
+      </c>
+      <c r="C84">
+        <v>697</v>
+      </c>
+      <c r="D84">
+        <v>60</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85">
+        <v>897</v>
+      </c>
+      <c r="C85">
+        <v>697</v>
+      </c>
+      <c r="D85">
+        <v>60</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86">
+        <v>165</v>
+      </c>
+      <c r="C86">
+        <v>65</v>
+      </c>
+      <c r="D86">
+        <v>70</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>932</v>
+      </c>
+      <c r="C87">
+        <v>632</v>
+      </c>
+      <c r="D87">
+        <v>75</v>
+      </c>
+      <c r="E87" t="s">
+        <v>60</v>
+      </c>
+      <c r="F87" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>932</v>
+      </c>
+      <c r="C88">
+        <v>632</v>
+      </c>
+      <c r="D88">
+        <v>75</v>
+      </c>
+      <c r="E88" t="s">
+        <v>59</v>
+      </c>
+      <c r="F88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>505</v>
+      </c>
+      <c r="C89">
+        <v>205</v>
+      </c>
+      <c r="D89">
+        <v>40</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>300</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>65</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>1132</v>
+      </c>
+      <c r="C91">
+        <v>1032</v>
+      </c>
+      <c r="D91">
+        <v>95</v>
+      </c>
+      <c r="E91" t="s">
+        <v>62</v>
+      </c>
+      <c r="F91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>606</v>
+      </c>
+      <c r="C92">
+        <v>406</v>
+      </c>
+      <c r="D92">
+        <v>80</v>
+      </c>
+      <c r="E92" t="s">
+        <v>62</v>
+      </c>
+      <c r="F92" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>403</v>
+      </c>
+      <c r="C93">
+        <v>203</v>
+      </c>
+      <c r="D93">
+        <v>40</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>403</v>
+      </c>
+      <c r="C94">
+        <v>203</v>
+      </c>
+      <c r="D94">
+        <v>40</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
